--- a/INFO/IceGroup (Категорий) (111).xlsx
+++ b/INFO/IceGroup (Категорий) (111).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333E510D-CD0F-4551-B8BD-DFC7EFA7369B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17070" yWindow="1965" windowWidth="10635" windowHeight="10335" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCTS" sheetId="7" r:id="rId1"/>
@@ -2705,13 +2706,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2941,6 +2950,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2969,7 +2986,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3237,173 +3254,174 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3465,7 +3483,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3498,9 +3516,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3533,6 +3568,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3708,63 +3760,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="84.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="84.44140625" customWidth="1"/>
     <col min="4" max="4" width="166" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B2" s="55" t="s">
+    <row r="1" spans="2:4" ht="15" thickBot="1"/>
+    <row r="2" spans="2:4" ht="15" thickBot="1">
+      <c r="B2" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
-    </row>
-    <row r="3" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B3" s="52" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+    </row>
+    <row r="3" spans="2:4" ht="18.600000000000001" thickBot="1">
+      <c r="B3" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="52" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="65" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="141" thickBot="1">
-      <c r="B5" s="61" t="s">
+    <row r="5" spans="2:4" ht="152.4" thickBot="1">
+      <c r="B5" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="54" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3774,19 +3826,19 @@
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="54" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="60">
-      <c r="C11" s="63" t="s">
+    <row r="11" spans="2:4" ht="57.6">
+      <c r="C11" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="55"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3794,22 +3846,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="101" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="192.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="192.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3823,192 +3875,192 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18">
+    <row r="2" spans="1:4" ht="17.399999999999999">
       <c r="A2" s="35"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="69" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="156" customHeight="1">
       <c r="A3" s="35"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="62"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="35"/>
-      <c r="B4" s="38"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:4" ht="21.75" customHeight="1">
       <c r="A5" s="35">
         <v>1</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="60" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="169.5" customHeight="1">
       <c r="A6" s="35"/>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="62"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="35"/>
-      <c r="B7" s="39"/>
+      <c r="B7" s="38"/>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1">
       <c r="A8" s="35">
         <v>2</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="60" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="168">
+    <row r="9" spans="1:4" ht="159.6">
       <c r="A9" s="35"/>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="62"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="35"/>
-      <c r="B10" s="39"/>
+      <c r="B10" s="38"/>
     </row>
     <row r="11" spans="1:4" ht="20.25" customHeight="1">
       <c r="A11" s="35">
         <v>3</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="70" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="155.25" customHeight="1">
       <c r="A12" s="35"/>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="35"/>
-      <c r="B13" s="39"/>
-    </row>
-    <row r="14" spans="1:4" ht="18">
+      <c r="B13" s="38"/>
+    </row>
+    <row r="14" spans="1:4" ht="17.399999999999999">
       <c r="A14" s="35">
         <v>4</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="70" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="149.25" customHeight="1">
       <c r="A15" s="35"/>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="35"/>
     </row>
-    <row r="17" spans="1:4" ht="18">
+    <row r="17" spans="1:4" ht="17.399999999999999">
       <c r="A17" s="35">
         <v>5</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="73" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="133.5" customHeight="1">
       <c r="A18" s="35"/>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="74" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="35"/>
     </row>
-    <row r="20" spans="1:4" ht="18.75">
+    <row r="20" spans="1:4" ht="18">
       <c r="A20" s="35">
         <v>6</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="36" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="133.5" customHeight="1">
       <c r="A21" s="35"/>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="56" t="s">
         <v>196</v>
       </c>
       <c r="D21" s="13"/>
@@ -4016,26 +4068,26 @@
     <row r="22" spans="1:4">
       <c r="A22" s="35"/>
     </row>
-    <row r="23" spans="1:4" ht="18.75">
+    <row r="23" spans="1:4" ht="18">
       <c r="A23" s="35">
         <v>7</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="57" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="119.25" customHeight="1">
       <c r="A24" s="35"/>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="56" t="s">
         <v>198</v>
       </c>
       <c r="D24" s="13"/>
@@ -4043,26 +4095,26 @@
     <row r="25" spans="1:4">
       <c r="A25" s="35"/>
     </row>
-    <row r="26" spans="1:4" ht="18.75">
+    <row r="26" spans="1:4" ht="18">
       <c r="A26" s="35">
         <v>8</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="57" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="232.5" customHeight="1">
       <c r="A27" s="35"/>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="56" t="s">
         <v>200</v>
       </c>
       <c r="D27" s="13"/>
@@ -4070,26 +4122,26 @@
     <row r="28" spans="1:4">
       <c r="A28" s="35"/>
     </row>
-    <row r="29" spans="1:4" ht="18.75">
+    <row r="29" spans="1:4" ht="18">
       <c r="A29" s="35">
         <v>9</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="57" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="149.25" customHeight="1">
       <c r="A30" s="35"/>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="56" t="s">
         <v>204</v>
       </c>
       <c r="D30" s="13"/>
@@ -4097,24 +4149,24 @@
     <row r="31" spans="1:4">
       <c r="A31" s="35"/>
     </row>
-    <row r="32" spans="1:4" ht="18.75">
+    <row r="32" spans="1:4" ht="18">
       <c r="A32" s="35"/>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="36" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="141" customHeight="1">
       <c r="A33" s="35"/>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="56" t="s">
         <v>239</v>
       </c>
       <c r="D33" s="13"/>
@@ -4122,24 +4174,24 @@
     <row r="34" spans="1:4" ht="20.25" customHeight="1">
       <c r="A34" s="35"/>
     </row>
-    <row r="35" spans="1:4" ht="18.75">
+    <row r="35" spans="1:4" ht="18">
       <c r="A35" s="35"/>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="57" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="125.25" customHeight="1">
       <c r="A36" s="35"/>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="56" t="s">
         <v>206</v>
       </c>
       <c r="D36" s="13"/>
@@ -4147,49 +4199,49 @@
     <row r="37" spans="1:4">
       <c r="A37" s="35"/>
     </row>
-    <row r="38" spans="1:4" ht="18.75">
+    <row r="38" spans="1:4" ht="18">
       <c r="A38" s="35"/>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="36" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="114" customHeight="1">
       <c r="A39" s="35"/>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="D39" s="69" t="s">
+      <c r="D39" s="59" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="35"/>
     </row>
-    <row r="41" spans="1:4" ht="18.75">
-      <c r="B41" s="43" t="s">
+    <row r="41" spans="1:4" ht="18">
+      <c r="B41" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="117" customHeight="1">
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="56" t="s">
         <v>214</v>
       </c>
       <c r="D42" s="13"/>
@@ -4197,22 +4249,22 @@
     <row r="43" spans="1:4">
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:4" ht="18.75">
-      <c r="B44" s="43" t="s">
+    <row r="44" spans="1:4" ht="18">
+      <c r="B44" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="36" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="164.25" customHeight="1">
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="56" t="s">
         <v>237</v>
       </c>
       <c r="D45" s="13"/>
@@ -4220,22 +4272,22 @@
     <row r="46" spans="1:4">
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:4" ht="18.75">
-      <c r="B47" s="43" t="s">
+    <row r="47" spans="1:4" ht="18">
+      <c r="B47" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="D47" s="66" t="s">
+      <c r="D47" s="57" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="120">
-      <c r="B48" s="45" t="s">
+    <row r="48" spans="1:4" ht="115.2">
+      <c r="B48" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="56" t="s">
         <v>247</v>
       </c>
       <c r="D48" s="13"/>
@@ -4292,22 +4344,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="3" max="3" width="119.7109375" customWidth="1"/>
-    <col min="4" max="4" width="148.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="119.6640625" customWidth="1"/>
+    <col min="4" max="4" width="148.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -4349,7 +4401,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75">
+    <row r="7" spans="1:4" ht="18">
       <c r="B7" s="32" t="s">
         <v>152</v>
       </c>
@@ -4384,22 +4436,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="99.42578125" customWidth="1"/>
-    <col min="4" max="4" width="152.7109375" customWidth="1"/>
+    <col min="3" max="3" width="99.44140625" customWidth="1"/>
+    <col min="4" max="4" width="152.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -4461,22 +4513,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="3" max="3" width="91.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="165.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="91.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="165.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -4710,7 +4762,7 @@
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
     </row>
-    <row r="22" spans="1:4" ht="18.75">
+    <row r="22" spans="1:4" ht="18">
       <c r="B22" s="32" t="s">
         <v>141</v>
       </c>
@@ -5023,7 +5075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I505"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5032,10 +5084,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="120.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="149.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="120.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="149.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1">

--- a/INFO/IceGroup (Категорий) (111).xlsx
+++ b/INFO/IceGroup (Категорий) (111).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333E510D-CD0F-4551-B8BD-DFC7EFA7369B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164A51C8-B820-4912-B4C9-2562A7816A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17628" yWindow="2196" windowWidth="10632" windowHeight="10332" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCTS" sheetId="7" r:id="rId1"/>
@@ -3850,7 +3850,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/INFO/IceGroup (Категорий) (111).xlsx
+++ b/INFO/IceGroup (Категорий) (111).xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164A51C8-B820-4912-B4C9-2562A7816A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17628" yWindow="2196" windowWidth="10632" windowHeight="10332" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17625" yWindow="2190" windowWidth="10635" windowHeight="10335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCTS" sheetId="7" r:id="rId1"/>
@@ -2305,22 +2304,6 @@
     <t>Холодильные шкафы нержавеющие</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Холодильная камера </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ДОБАВЛЮ + все товары с глухими дверьми</t>
-    </r>
-  </si>
-  <si>
     <t>H2
 Холодильный шкаф производственный
 H3
@@ -2702,12 +2685,16 @@
 Преимущества и описания холодильников Carboma
 </t>
   </si>
+  <si>
+    <t>Холодильная камера 
+ДОБАВЛЮ + все товары с глухими дверьми</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2888,14 +2875,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Arial"/>
@@ -2937,14 +2916,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -3256,7 +3227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3337,7 +3308,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3387,15 +3357,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3419,8 +3382,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3483,7 +3449,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3516,26 +3482,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3568,23 +3517,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3760,7 +3692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3770,53 +3702,53 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="84.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="84.42578125" customWidth="1"/>
     <col min="4" max="4" width="166" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1"/>
-    <row r="2" spans="2:4" ht="15" thickBot="1">
-      <c r="B2" s="53" t="s">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B2" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-    </row>
-    <row r="3" spans="2:4" ht="18.600000000000001" thickBot="1">
-      <c r="B3" s="50" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+    </row>
+    <row r="3" spans="2:4" ht="19.5" thickBot="1">
+      <c r="B3" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="61" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="152.4" thickBot="1">
-      <c r="B5" s="66" t="s">
+    <row r="5" spans="2:4" ht="141" thickBot="1">
+      <c r="B5" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3826,19 +3758,19 @@
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="53" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="57.6">
-      <c r="C11" s="55" t="s">
+    <row r="11" spans="2:4" ht="60">
+      <c r="C11" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="54"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3846,22 +3778,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="49.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="101" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="192.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="192.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3875,422 +3807,422 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.399999999999999">
+    <row r="2" spans="1:4" ht="18">
       <c r="A2" s="35"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="65" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="156" customHeight="1">
       <c r="A3" s="35"/>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="62"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="35"/>
-      <c r="B4" s="37"/>
+      <c r="B4" s="36"/>
     </row>
     <row r="5" spans="1:4" ht="21.75" customHeight="1">
       <c r="A5" s="35">
         <v>1</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="56" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="169.5" customHeight="1">
       <c r="A6" s="35"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="62"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="35"/>
-      <c r="B7" s="38"/>
+      <c r="B7" s="37"/>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1">
       <c r="A8" s="35">
         <v>2</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="56" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="159.6">
+    <row r="9" spans="1:4" ht="168">
       <c r="A9" s="35"/>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="62"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="35"/>
-      <c r="B10" s="38"/>
+      <c r="B10" s="37"/>
     </row>
     <row r="11" spans="1:4" ht="20.25" customHeight="1">
       <c r="A11" s="35">
         <v>3</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="66" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="155.25" customHeight="1">
       <c r="A12" s="35"/>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="62"/>
+      <c r="D12" s="58"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="35"/>
-      <c r="B13" s="38"/>
-    </row>
-    <row r="14" spans="1:4" ht="17.399999999999999">
+      <c r="B13" s="37"/>
+    </row>
+    <row r="14" spans="1:4" ht="18">
       <c r="A14" s="35">
         <v>4</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="66" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="149.25" customHeight="1">
       <c r="A15" s="35"/>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="62"/>
+      <c r="D15" s="58"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="35"/>
     </row>
-    <row r="17" spans="1:4" ht="17.399999999999999">
+    <row r="17" spans="1:4" ht="18">
       <c r="A17" s="35">
         <v>5</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="69" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="133.5" customHeight="1">
       <c r="A18" s="35"/>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="D18" s="74" t="s">
-        <v>234</v>
+      <c r="D18" s="70" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="35"/>
     </row>
-    <row r="20" spans="1:4" ht="18">
+    <row r="20" spans="1:4" ht="18.75">
       <c r="A20" s="35">
         <v>6</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="66" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="133.5" customHeight="1">
       <c r="A21" s="35"/>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="58"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="35"/>
     </row>
-    <row r="23" spans="1:4" ht="18">
+    <row r="23" spans="1:4" ht="18.75">
       <c r="A23" s="35">
         <v>7</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="56" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="119.25" customHeight="1">
       <c r="A24" s="35"/>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="35"/>
     </row>
-    <row r="26" spans="1:4" ht="18">
+    <row r="26" spans="1:4" ht="18.75">
       <c r="A26" s="35">
         <v>8</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="56" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="232.5" customHeight="1">
       <c r="A27" s="35"/>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="58"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="35"/>
     </row>
-    <row r="29" spans="1:4" ht="18">
+    <row r="29" spans="1:4" ht="18.75">
       <c r="A29" s="35">
         <v>9</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="56" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="149.25" customHeight="1">
       <c r="A30" s="35"/>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="13"/>
+      <c r="D30" s="58"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="35"/>
     </row>
-    <row r="32" spans="1:4" ht="18">
+    <row r="32" spans="1:4" ht="18.75">
       <c r="A32" s="35"/>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="D32" s="36" t="s">
+      <c r="C32" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" s="66" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="141" customHeight="1">
       <c r="A33" s="35"/>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="C33" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="D33" s="13"/>
+      <c r="C33" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="58"/>
     </row>
     <row r="34" spans="1:4" ht="20.25" customHeight="1">
       <c r="A34" s="35"/>
     </row>
-    <row r="35" spans="1:4" ht="18">
+    <row r="35" spans="1:4" ht="18.75">
       <c r="A35" s="35"/>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>238</v>
+      <c r="C35" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="125.25" customHeight="1">
       <c r="A36" s="35"/>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="D36" s="13"/>
+      <c r="D36" s="58"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="35"/>
     </row>
-    <row r="38" spans="1:4" ht="18">
+    <row r="38" spans="1:4" ht="18.75">
       <c r="A38" s="35"/>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="66" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="114" customHeight="1">
       <c r="A39" s="35"/>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="D39" s="59" t="s">
+      <c r="C39" s="67" t="s">
         <v>231</v>
+      </c>
+      <c r="D39" s="71" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="35"/>
     </row>
-    <row r="41" spans="1:4" ht="18">
-      <c r="B41" s="41" t="s">
+    <row r="41" spans="1:4" ht="18.75">
+      <c r="B41" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="66" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="117" customHeight="1">
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="D42" s="13"/>
+      <c r="D42" s="58"/>
     </row>
     <row r="43" spans="1:4">
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:4" ht="18">
-      <c r="B44" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="C44" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="D44" s="36" t="s">
+    <row r="44" spans="1:4" ht="18.75">
+      <c r="B44" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="D44" s="66" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="164.25" customHeight="1">
+      <c r="B45" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" s="67" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="164.25" customHeight="1">
-      <c r="B45" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="56" t="s">
-        <v>237</v>
-      </c>
-      <c r="D45" s="13"/>
+      <c r="D45" s="58"/>
     </row>
     <row r="46" spans="1:4">
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:4" ht="18">
-      <c r="B47" s="41" t="s">
+    <row r="47" spans="1:4" ht="18.75">
+      <c r="B47" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="D47" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="D47" s="57" t="s">
+    </row>
+    <row r="48" spans="1:4" ht="120">
+      <c r="B48" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" s="67" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="115.2">
-      <c r="B48" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="D48" s="13"/>
+      <c r="D48" s="58"/>
     </row>
     <row r="49" spans="2:2">
       <c r="B49"/>
@@ -4344,22 +4276,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="2" width="42.109375" customWidth="1"/>
-    <col min="3" max="3" width="119.6640625" customWidth="1"/>
-    <col min="4" max="4" width="148.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="119.7109375" customWidth="1"/>
+    <col min="4" max="4" width="148.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -4401,7 +4333,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18">
+    <row r="7" spans="1:4" ht="18.75">
       <c r="B7" s="32" t="s">
         <v>152</v>
       </c>
@@ -4436,22 +4368,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="99.44140625" customWidth="1"/>
-    <col min="4" max="4" width="152.6640625" customWidth="1"/>
+    <col min="3" max="3" width="99.42578125" customWidth="1"/>
+    <col min="4" max="4" width="152.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -4513,22 +4445,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.109375" customWidth="1"/>
-    <col min="3" max="3" width="91.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="165.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="91.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="165.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -4762,7 +4694,7 @@
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
     </row>
-    <row r="22" spans="1:4" ht="18">
+    <row r="22" spans="1:4" ht="18.75">
       <c r="B22" s="32" t="s">
         <v>141</v>
       </c>
@@ -5075,7 +5007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I505"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5084,10 +5016,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="42.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="120.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="149.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="120.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="149.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1">

--- a/INFO/IceGroup (Категорий) (111).xlsx
+++ b/INFO/IceGroup (Категорий) (111).xlsx
@@ -7,19 +7,20 @@
     <workbookView xWindow="17625" yWindow="2190" windowWidth="10635" windowHeight="10335" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PRODUCTS" sheetId="7" r:id="rId1"/>
-    <sheet name="Холодильные шкафы" sheetId="6" r:id="rId2"/>
-    <sheet name="Морозильники" sheetId="3" r:id="rId3"/>
-    <sheet name="Камеры" sheetId="4" r:id="rId4"/>
-    <sheet name="Ларь" sheetId="2" r:id="rId5"/>
-    <sheet name="Бонеты" sheetId="1" r:id="rId6"/>
+    <sheet name="Холодильные витрины" sheetId="8" r:id="rId1"/>
+    <sheet name="Морозильники" sheetId="3" r:id="rId2"/>
+    <sheet name="PRODUCTS" sheetId="7" r:id="rId3"/>
+    <sheet name="Холодильные шкафы" sheetId="6" r:id="rId4"/>
+    <sheet name="Камеры" sheetId="4" r:id="rId5"/>
+    <sheet name="Ларь" sheetId="2" r:id="rId6"/>
+    <sheet name="Бонеты" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="260">
   <si>
     <t>Title</t>
   </si>
@@ -478,15 +479,6 @@
   </si>
   <si>
     <t>Морозильник для мороженого</t>
-  </si>
-  <si>
-    <t>морозильник +для мороженого</t>
-  </si>
-  <si>
-    <t>морозильная витрина +для мороженого</t>
-  </si>
-  <si>
-    <t>купить морозильник +для мороженого</t>
   </si>
   <si>
     <t>Холодильные шкафы</t>
@@ -2688,6 +2680,432 @@
   <si>
     <t>Холодильная камера 
 ДОБАВЛЮ + все товары с глухими дверьми</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Морозильники для магазина - торговые морозильные и холодильные решения</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Морозильные и холодильные лари
+Морозильная и холодильная бонета
+Морозильные шкафы для общепита
+Морозильные витрины для магазина
+Морозильная витрина для мороженого</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Морозильная камера
+Промышленный морозильник</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Преимущества промышленных морозильных камер</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Использование морозильных камер предоставляет множество преимуществ для бизнеса
+Применение морозильных камер в различных отраслях
+Типы морозильных камер
+Выбор морозильных камер для бизнеса
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Морозильные витрины</t>
+  </si>
+  <si>
+    <t>Бонеты</t>
+  </si>
+  <si>
+    <t>Холодильные витрины</t>
+  </si>
+  <si>
+    <t>Холодильные витрины Carboma</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Кондитерские витрины</t>
+  </si>
+  <si>
+    <t>Тепловая витрина</t>
+  </si>
+  <si>
+    <t>Открытые витрины</t>
+  </si>
+  <si>
+    <t>Настольная витрина</t>
+  </si>
+  <si>
+    <t>Камеры (старая стр)</t>
+  </si>
+  <si>
+    <t>Холодильники (старая стр Холодильные шкафы)</t>
+  </si>
+  <si>
+    <t>Горки (старая стр)</t>
   </si>
 </sst>
 </file>
@@ -3227,7 +3645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3387,6 +3805,15 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3694,12 +4121,325 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="9" tint="-0.249977111117893"/>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="99.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="149.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18">
+      <c r="A2" s="73"/>
+      <c r="B2" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="72"/>
+    </row>
+    <row r="3" spans="1:4" ht="76.5">
+      <c r="A3" s="73"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="58"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="74"/>
+    </row>
+    <row r="5" spans="1:4" ht="18">
+      <c r="A5" s="73">
+        <v>1</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="72"/>
+    </row>
+    <row r="6" spans="1:4" ht="91.5">
+      <c r="A6" s="73"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="58"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="A7" s="74"/>
+      <c r="B7" s="32"/>
+    </row>
+    <row r="8" spans="1:4" ht="18">
+      <c r="A8" s="73">
+        <v>2</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="72"/>
+    </row>
+    <row r="9" spans="1:4" ht="76.5">
+      <c r="A9" s="73"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="58"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="74"/>
+    </row>
+    <row r="11" spans="1:4" ht="18">
+      <c r="A11" s="73">
+        <v>3</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="65"/>
+      <c r="D11" s="72"/>
+    </row>
+    <row r="12" spans="1:4" ht="76.5">
+      <c r="A12" s="73"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="14" spans="1:4" ht="18">
+      <c r="A14" s="73">
+        <v>4</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="72"/>
+    </row>
+    <row r="15" spans="1:4" ht="76.5">
+      <c r="A15" s="73"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="58"/>
+    </row>
+    <row r="17" spans="1:4" ht="18">
+      <c r="A17" s="73">
+        <v>5</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="65"/>
+      <c r="D17" s="72"/>
+    </row>
+    <row r="18" spans="1:4" ht="76.5">
+      <c r="A18" s="73"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D12" sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" style="74" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="119.7109375" customWidth="1"/>
+    <col min="4" max="4" width="160.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18">
+      <c r="A2" s="73"/>
+      <c r="B2" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="166.5">
+      <c r="A3" s="73"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="58"/>
+    </row>
+    <row r="5" spans="1:4" ht="18">
+      <c r="A5" s="73">
+        <v>1</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="136.5">
+      <c r="A6" s="73"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="58"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="B7" s="32"/>
+    </row>
+    <row r="8" spans="1:4" ht="18">
+      <c r="A8" s="73">
+        <v>2</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="72"/>
+    </row>
+    <row r="9" spans="1:4" ht="76.5">
+      <c r="A9" s="73"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="58"/>
+    </row>
+    <row r="11" spans="1:4" ht="18">
+      <c r="A11" s="73">
+        <v>3</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="65"/>
+      <c r="D11" s="72"/>
+    </row>
+    <row r="12" spans="1:4" ht="76.5">
+      <c r="A12" s="73"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="74">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="74">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="74">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B1:D11"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3713,14 +4453,14 @@
     <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:4" ht="15.75" thickBot="1">
       <c r="B2" s="52" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="48"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1">
       <c r="B3" s="49" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C3" s="50" t="s">
         <v>0</v>
@@ -3731,40 +4471,40 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="59" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="141" thickBot="1">
       <c r="B5" s="62" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C5" s="63"/>
       <c r="D5" s="64"/>
     </row>
     <row r="7" spans="2:4">
       <c r="C7" s="53" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="C8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="C10" s="53" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="60">
       <c r="C11" s="54" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D11" s="54"/>
     </row>
@@ -3777,12 +4517,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3798,7 +4541,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -3810,22 +4553,22 @@
     <row r="2" spans="1:4" ht="18">
       <c r="A2" s="35"/>
       <c r="B2" s="39" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="156" customHeight="1">
       <c r="A3" s="35"/>
       <c r="B3" s="41" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D3" s="58"/>
     </row>
@@ -3838,22 +4581,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="169.5" customHeight="1">
       <c r="A6" s="35"/>
       <c r="B6" s="42" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D6" s="58"/>
     </row>
@@ -3866,22 +4609,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="56" t="s">
         <v>178</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="168">
       <c r="A9" s="35"/>
       <c r="B9" s="42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D9" s="58"/>
     </row>
@@ -3894,22 +4637,22 @@
         <v>3</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="155.25" customHeight="1">
       <c r="A12" s="35"/>
       <c r="B12" s="42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C12" s="67" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D12" s="58"/>
     </row>
@@ -3922,22 +4665,22 @@
         <v>4</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="149.25" customHeight="1">
       <c r="A15" s="35"/>
       <c r="B15" s="41" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C15" s="67" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D15" s="58"/>
     </row>
@@ -3949,25 +4692,25 @@
         <v>5</v>
       </c>
       <c r="B17" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="69" t="s">
         <v>190</v>
-      </c>
-      <c r="C17" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="133.5" customHeight="1">
       <c r="A18" s="35"/>
       <c r="B18" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="67" t="s">
-        <v>194</v>
-      </c>
       <c r="D18" s="70" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3978,22 +4721,22 @@
         <v>6</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D20" s="66" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="133.5" customHeight="1">
       <c r="A21" s="35"/>
       <c r="B21" s="42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D21" s="58"/>
     </row>
@@ -4005,22 +4748,22 @@
         <v>7</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="119.25" customHeight="1">
       <c r="A24" s="35"/>
       <c r="B24" s="41" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D24" s="58"/>
     </row>
@@ -4032,22 +4775,22 @@
         <v>8</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="232.5" customHeight="1">
       <c r="A27" s="35"/>
       <c r="B27" s="42" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D27" s="58"/>
     </row>
@@ -4059,22 +4802,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="149.25" customHeight="1">
       <c r="A30" s="35"/>
       <c r="B30" s="46" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C30" s="67" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D30" s="58"/>
     </row>
@@ -4084,22 +4827,22 @@
     <row r="32" spans="1:4" ht="18.75">
       <c r="A32" s="35"/>
       <c r="B32" s="40" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D32" s="66" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="141" customHeight="1">
       <c r="A33" s="35"/>
       <c r="B33" s="41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C33" s="67" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D33" s="58"/>
     </row>
@@ -4109,22 +4852,22 @@
     <row r="35" spans="1:4" ht="18.75">
       <c r="A35" s="35"/>
       <c r="B35" s="40" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C35" s="56" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D35" s="56" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="125.25" customHeight="1">
       <c r="A36" s="35"/>
       <c r="B36" s="55" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C36" s="67" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D36" s="58"/>
     </row>
@@ -4134,25 +4877,25 @@
     <row r="38" spans="1:4" ht="18.75">
       <c r="A38" s="35"/>
       <c r="B38" s="40" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C38" s="66" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D38" s="66" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="114" customHeight="1">
       <c r="A39" s="35"/>
       <c r="B39" s="42" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C39" s="67" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D39" s="71" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4160,21 +4903,21 @@
     </row>
     <row r="41" spans="1:4" ht="18.75">
       <c r="B41" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" s="66" t="s">
         <v>210</v>
-      </c>
-      <c r="C41" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41" s="66" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="117" customHeight="1">
       <c r="B42" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" s="67" t="s">
         <v>211</v>
-      </c>
-      <c r="C42" s="67" t="s">
-        <v>214</v>
       </c>
       <c r="D42" s="58"/>
     </row>
@@ -4183,21 +4926,21 @@
     </row>
     <row r="44" spans="1:4" ht="18.75">
       <c r="B44" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" s="66" t="s">
         <v>232</v>
-      </c>
-      <c r="C44" s="56" t="s">
-        <v>241</v>
-      </c>
-      <c r="D44" s="66" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="164.25" customHeight="1">
       <c r="B45" s="42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C45" s="67" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D45" s="58"/>
     </row>
@@ -4206,21 +4949,21 @@
     </row>
     <row r="47" spans="1:4" ht="18.75">
       <c r="B47" s="40" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D47" s="56" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="120">
       <c r="B48" s="42" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C48" s="67" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D48" s="58"/>
     </row>
@@ -4275,100 +5018,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="3" max="3" width="119.7109375" customWidth="1"/>
-    <col min="4" max="4" width="148.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="29">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75">
-      <c r="B7" s="32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4444,12 +5098,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5006,8 +5663,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:I505"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
